--- a/public/dist-web/format-validasi3.xlsx
+++ b/public/dist-web/format-validasi3.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/KODING/PEMDESDAHBOARD/pemdes_dash/public/dist-web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B1FFD4-1BC0-D94F-AA07-8335C6300C1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299ADAE0-A96C-D849-A6DD-4D37658C197A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{CB107167-123E-C945-A050-4AF05C49BC38}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" activeTab="1" xr2:uid="{CB107167-123E-C945-A050-4AF05C49BC38}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="2" r:id="rId1"/>
+    <sheet name="META DATA" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>AGREGASI</t>
-  </si>
-  <si>
-    <t>ENTITAS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TITLE</t>
   </si>
@@ -70,13 +65,31 @@
   </si>
   <si>
     <t>NAMA KOTA/KAB</t>
+  </si>
+  <si>
+    <t>NAMA DATA</t>
+  </si>
+  <si>
+    <t>DEFINISI</t>
+  </si>
+  <si>
+    <t>TIPE DATA</t>
+  </si>
+  <si>
+    <t>INTERVAL NILAI</t>
+  </si>
+  <si>
+    <t>*Jika terdapat perubahan data, mohon melakukan pengisian sesuai dengan kaidah meta data pada table berikut</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,8 +120,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +165,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -197,73 +229,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -285,68 +256,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97EABE4-6EF5-5B41-B7A5-D13440A4434F}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,14 +647,14 @@
   <sheetData>
     <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
@@ -696,41 +663,41 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="20" t="s">
-        <v>5</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -739,88 +706,97 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6">
         <v>4</v>
       </c>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3" t="s">
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
-        <v>1</v>
-      </c>
-      <c r="B8" s="16">
-        <v>2</v>
-      </c>
-      <c r="C8" s="16">
-        <v>3</v>
-      </c>
-      <c r="D8" s="16">
-        <v>4</v>
-      </c>
-      <c r="E8" s="16">
-        <v>5</v>
-      </c>
-      <c r="F8" s="16">
-        <v>6</v>
-      </c>
-      <c r="G8" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="G6:G8"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6" xr:uid="{BC666443-3505-2347-89CA-70DA5AB90FDA}">
@@ -836,4 +812,64 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6A03F3-37CF-5349-8423-70C3CA9025DB}">
+  <dimension ref="A2:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="23" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/dist-web/format-validasi3.xlsx
+++ b/public/dist-web/format-validasi3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/KODING/PEMDESDAHBOARD/pemdes_dash/public/dist-web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299ADAE0-A96C-D849-A6DD-4D37658C197A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615D1001-911A-9F4E-8895-AF935561C5BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" activeTab="1" xr2:uid="{CB107167-123E-C945-A050-4AF05C49BC38}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" xr2:uid="{CB107167-123E-C945-A050-4AF05C49BC38}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>TITLE</t>
   </si>
@@ -46,12 +46,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>TANGGAL</t>
-  </si>
-  <si>
-    <t>VALIDASI</t>
-  </si>
-  <si>
     <t>KODE DAERAH</t>
   </si>
   <si>
@@ -83,13 +77,25 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>VALIDASI / VERIFIKASI</t>
+  </si>
+  <si>
+    <t>UPDATE DATE</t>
+  </si>
+  <si>
+    <t>AKSI</t>
+  </si>
+  <si>
+    <t>VALIDASI DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,14 +107,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -248,11 +246,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -262,58 +286,67 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,177 +662,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97EABE4-6EF5-5B41-B7A5-D13440A4434F}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="2" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7" t="s">
+      <c r="I6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <v>1</v>
+      </c>
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22">
         <v>3</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
+      <c r="D9" s="23">
+        <v>4</v>
+      </c>
+      <c r="E9" s="22">
+        <v>5</v>
+      </c>
+      <c r="F9" s="23">
+        <v>6</v>
+      </c>
+      <c r="G9" s="22">
         <v>7</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="H9" s="23">
+        <v>8</v>
+      </c>
+      <c r="I9" s="22">
         <v>9</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6">
-        <v>6</v>
-      </c>
-      <c r="G9" s="6">
-        <v>7</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="F6:F8"/>
     <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H6:H8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6" xr:uid="{BC666443-3505-2347-89CA-70DA5AB90FDA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6" xr:uid="{BC666443-3505-2347-89CA-70DA5AB90FDA}">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>SUM,MAX,MIN,AVERAGE,"COUNT,NONE"</x12ac:list>
@@ -818,52 +885,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6A03F3-37CF-5349-8423-70C3CA9025DB}">
   <dimension ref="A2:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="21" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="F6" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
